--- a/db/数据库标准数据.xlsx
+++ b/db/数据库标准数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="APMS_SYS_DICT" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="582">
   <si>
     <t>FUNC_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1784,6 +1784,42 @@
   </si>
   <si>
     <t>不合格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交警支队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车管所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>告诉一大队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>告诉二大队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>告诉三大队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>告诉四大队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>告诉五大队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>告诉六大队</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2152,7 +2188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="G116" sqref="G116"/>
     </sheetView>
   </sheetViews>
@@ -4488,10 +4524,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4531,7 +4567,7 @@
         <v>194</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C12" si="0">CONCATENATE("INSERT INTO APMS_DEPT_BUREAU(BUREAU_ID, BUREAU_NAME) VALUES(-",A3,",'",B3,"');")</f>
+        <f t="shared" ref="C3:C13" si="0">CONCATENATE("INSERT INTO APMS_DEPT_BUREAU(BUREAU_ID, BUREAU_NAME) VALUES(-",A3,",'",B3,"');")</f>
         <v>INSERT INTO APMS_DEPT_BUREAU(BUREAU_ID, BUREAU_NAME) VALUES(-1010,'七星关');</v>
       </c>
     </row>
@@ -4643,18 +4679,31 @@
         <v>INSERT INTO APMS_DEPT_BUREAU(BUREAU_ID, BUREAU_NAME) VALUES(-1100,'金海湖');</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>1120</v>
+      </c>
+      <c r="B13" t="s">
+        <v>573</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO APMS_DEPT_BUREAU(BUREAU_ID, BUREAU_NAME) VALUES(-1120,'交警支队');</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F504"/>
+  <dimension ref="A1:F514"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31:D71"/>
+    <sheetView topLeftCell="A486" workbookViewId="0">
+      <selection activeCell="F505" sqref="F505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15117,7 +15166,7 @@
         <v>531</v>
       </c>
       <c r="F452" t="str">
-        <f t="shared" ref="F452:F504" si="23">CONCATENATE("INSERT INTO APMS_DEPT_STATION(STATION_ID,BUREAU_ID,STATION_NAME) VALUES (-",D452,",-",B452,",'",E452,"');")</f>
+        <f t="shared" ref="F452:F514" si="23">CONCATENATE("INSERT INTO APMS_DEPT_STATION(STATION_ID,BUREAU_ID,STATION_NAME) VALUES (-",D452,",-",B452,",'",E452,"');")</f>
         <v>INSERT INTO APMS_DEPT_STATION(STATION_ID,BUREAU_ID,STATION_NAME) VALUES (-10802180,-1080,'妈姑矿区社区派出所');</v>
       </c>
     </row>
@@ -16271,6 +16320,198 @@
       <c r="F504" t="str">
         <f t="shared" si="23"/>
         <v>INSERT INTO APMS_DEPT_STATION(STATION_ID,BUREAU_ID,STATION_NAME) VALUES (-11002080,-1100,'小坝派出所');</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A506">
+        <v>1</v>
+      </c>
+      <c r="B506">
+        <f>APMS_DEPT_BUREAU!$A$13</f>
+        <v>1120</v>
+      </c>
+      <c r="C506" t="str">
+        <f>APMS_DEPT_BUREAU!$B$13</f>
+        <v>交警支队</v>
+      </c>
+      <c r="D506">
+        <f t="shared" ref="D506:D507" si="28">$B506*10000+1000+$A506*10</f>
+        <v>11201010</v>
+      </c>
+      <c r="E506" t="s">
+        <v>574</v>
+      </c>
+      <c r="F506" t="str">
+        <f t="shared" si="23"/>
+        <v>INSERT INTO APMS_DEPT_STATION(STATION_ID,BUREAU_ID,STATION_NAME) VALUES (-11201010,-1120,'政治处');</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A507">
+        <v>2</v>
+      </c>
+      <c r="B507">
+        <f>APMS_DEPT_BUREAU!$A$13</f>
+        <v>1120</v>
+      </c>
+      <c r="C507" t="str">
+        <f>APMS_DEPT_BUREAU!$B$13</f>
+        <v>交警支队</v>
+      </c>
+      <c r="D507">
+        <f t="shared" si="28"/>
+        <v>11201020</v>
+      </c>
+      <c r="E507" t="s">
+        <v>575</v>
+      </c>
+      <c r="F507" t="str">
+        <f t="shared" si="23"/>
+        <v>INSERT INTO APMS_DEPT_STATION(STATION_ID,BUREAU_ID,STATION_NAME) VALUES (-11201020,-1120,'车管所');</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A509">
+        <v>1</v>
+      </c>
+      <c r="B509">
+        <f>APMS_DEPT_BUREAU!$A$13</f>
+        <v>1120</v>
+      </c>
+      <c r="C509" t="str">
+        <f>APMS_DEPT_BUREAU!$B$13</f>
+        <v>交警支队</v>
+      </c>
+      <c r="D509">
+        <f>$B509*10000+2000+$A509*10</f>
+        <v>11202010</v>
+      </c>
+      <c r="E509" t="s">
+        <v>576</v>
+      </c>
+      <c r="F509" t="str">
+        <f t="shared" si="23"/>
+        <v>INSERT INTO APMS_DEPT_STATION(STATION_ID,BUREAU_ID,STATION_NAME) VALUES (-11202010,-1120,'告诉一大队');</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A510">
+        <v>2</v>
+      </c>
+      <c r="B510">
+        <f>APMS_DEPT_BUREAU!$A$13</f>
+        <v>1120</v>
+      </c>
+      <c r="C510" t="str">
+        <f>APMS_DEPT_BUREAU!$B$13</f>
+        <v>交警支队</v>
+      </c>
+      <c r="D510">
+        <f t="shared" ref="D510:D514" si="29">$B510*10000+2000+$A510*10</f>
+        <v>11202020</v>
+      </c>
+      <c r="E510" t="s">
+        <v>577</v>
+      </c>
+      <c r="F510" t="str">
+        <f t="shared" si="23"/>
+        <v>INSERT INTO APMS_DEPT_STATION(STATION_ID,BUREAU_ID,STATION_NAME) VALUES (-11202020,-1120,'告诉二大队');</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A511">
+        <v>3</v>
+      </c>
+      <c r="B511">
+        <f>APMS_DEPT_BUREAU!$A$13</f>
+        <v>1120</v>
+      </c>
+      <c r="C511" t="str">
+        <f>APMS_DEPT_BUREAU!$B$13</f>
+        <v>交警支队</v>
+      </c>
+      <c r="D511">
+        <f t="shared" si="29"/>
+        <v>11202030</v>
+      </c>
+      <c r="E511" t="s">
+        <v>578</v>
+      </c>
+      <c r="F511" t="str">
+        <f t="shared" si="23"/>
+        <v>INSERT INTO APMS_DEPT_STATION(STATION_ID,BUREAU_ID,STATION_NAME) VALUES (-11202030,-1120,'告诉三大队');</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A512">
+        <v>4</v>
+      </c>
+      <c r="B512">
+        <f>APMS_DEPT_BUREAU!$A$13</f>
+        <v>1120</v>
+      </c>
+      <c r="C512" t="str">
+        <f>APMS_DEPT_BUREAU!$B$13</f>
+        <v>交警支队</v>
+      </c>
+      <c r="D512">
+        <f t="shared" si="29"/>
+        <v>11202040</v>
+      </c>
+      <c r="E512" t="s">
+        <v>579</v>
+      </c>
+      <c r="F512" t="str">
+        <f t="shared" si="23"/>
+        <v>INSERT INTO APMS_DEPT_STATION(STATION_ID,BUREAU_ID,STATION_NAME) VALUES (-11202040,-1120,'告诉四大队');</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A513">
+        <v>5</v>
+      </c>
+      <c r="B513">
+        <f>APMS_DEPT_BUREAU!$A$13</f>
+        <v>1120</v>
+      </c>
+      <c r="C513" t="str">
+        <f>APMS_DEPT_BUREAU!$B$13</f>
+        <v>交警支队</v>
+      </c>
+      <c r="D513">
+        <f t="shared" si="29"/>
+        <v>11202050</v>
+      </c>
+      <c r="E513" t="s">
+        <v>580</v>
+      </c>
+      <c r="F513" t="str">
+        <f t="shared" si="23"/>
+        <v>INSERT INTO APMS_DEPT_STATION(STATION_ID,BUREAU_ID,STATION_NAME) VALUES (-11202050,-1120,'告诉五大队');</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A514">
+        <v>6</v>
+      </c>
+      <c r="B514">
+        <f>APMS_DEPT_BUREAU!$A$13</f>
+        <v>1120</v>
+      </c>
+      <c r="C514" t="str">
+        <f>APMS_DEPT_BUREAU!$B$13</f>
+        <v>交警支队</v>
+      </c>
+      <c r="D514">
+        <f t="shared" si="29"/>
+        <v>11202060</v>
+      </c>
+      <c r="E514" t="s">
+        <v>581</v>
+      </c>
+      <c r="F514" t="str">
+        <f t="shared" si="23"/>
+        <v>INSERT INTO APMS_DEPT_STATION(STATION_ID,BUREAU_ID,STATION_NAME) VALUES (-11202060,-1120,'告诉六大队');</v>
       </c>
     </row>
   </sheetData>
